--- a/sample Data/SampleData.xlsx
+++ b/sample Data/SampleData.xlsx
@@ -13,14 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="SalesOrders" sheetId="1" r:id="rId1"/>
-    <sheet name="MyLinks" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="26">
   <si>
     <t>Region</t>
   </si>
@@ -91,33 +90,6 @@
     <t>OrderDate</t>
   </si>
   <si>
-    <t>Chandoo's Project Management Templates</t>
-  </si>
-  <si>
-    <t>ExcelUser Dashboards</t>
-  </si>
-  <si>
-    <t>Jon Peltier's Excel Chart Utilities</t>
-  </si>
-  <si>
-    <t>Contextures Recommends</t>
-  </si>
-  <si>
-    <t>Excel Pivot Tables Blog</t>
-  </si>
-  <si>
-    <t>Contextures Excel Blog</t>
-  </si>
-  <si>
-    <t>Contextures Excel Tips Website</t>
-  </si>
-  <si>
-    <t>Debra's Pivot Table Books on Amazon</t>
-  </si>
-  <si>
-    <t>30 Excel Functions in 30 Days eBook Kit</t>
-  </si>
-  <si>
     <t>Central</t>
   </si>
   <si>
@@ -125,90 +97,6 @@
   </si>
   <si>
     <t>East</t>
-  </si>
-  <si>
-    <t>Chandoo's Excel VBA School</t>
-  </si>
-  <si>
-    <t>PivotPower Premium Add-in</t>
-  </si>
-  <si>
-    <t>UserForms for Data Entry ebook Kit</t>
-  </si>
-  <si>
-    <t>Excel Courses Online</t>
-  </si>
-  <si>
-    <t>Contextures Products</t>
-  </si>
-  <si>
-    <t>Time-saving tools for pivot table power users</t>
-  </si>
-  <si>
-    <t>Step by step instructions and videos</t>
-  </si>
-  <si>
-    <t>Contextures Excel Tools Add-in</t>
-  </si>
-  <si>
-    <t>Make instant backups, sort sheets, and many more tools</t>
-  </si>
-  <si>
-    <t>Data Validation Multi-Select Premium Kit</t>
-  </si>
-  <si>
-    <t>Select multiple items from a listbox, to enter in a single cell</t>
-  </si>
-  <si>
-    <t>Sample workbook and easy to follow user guide for key Excel functions</t>
-  </si>
-  <si>
-    <t>Create complex charts with just a few clicks</t>
-  </si>
-  <si>
-    <t>Templates and instructions for impressive dashboards</t>
-  </si>
-  <si>
-    <t>Xtreme Pivot Table Course</t>
-  </si>
-  <si>
-    <t>Video training from beginner to advanced topics</t>
-  </si>
-  <si>
-    <t>Power Pivot University</t>
-  </si>
-  <si>
-    <t>Online course by Power Pivot expert Rob Collie</t>
-  </si>
-  <si>
-    <t>Excel training by Mynda Treacy</t>
-  </si>
-  <si>
-    <t>Become awesome in Excel VBA with Chandoo's online training</t>
-  </si>
-  <si>
-    <t>Save time with Chandoo's templates for project management</t>
-  </si>
-  <si>
-    <t>Contextures Sites &amp; News</t>
-  </si>
-  <si>
-    <t>Contextures Excel Newsletter</t>
-  </si>
-  <si>
-    <t>Weekly Excel tips, tutorials, videos, and news</t>
-  </si>
-  <si>
-    <t>Hundreds of tutorials, tips and sample files</t>
-  </si>
-  <si>
-    <t>Read the Excel tutorials and share your comments</t>
-  </si>
-  <si>
-    <t>Pivot table tutorials and tips, with comments and questions</t>
-  </si>
-  <si>
-    <t>Pivot table books for Excel 2007</t>
   </si>
 </sst>
 </file>
@@ -216,10 +104,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="171" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Arial Narrow"/>
@@ -270,25 +158,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -309,8 +178,8 @@
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -323,7 +192,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -347,7 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -363,35 +232,14 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -706,13 +554,34 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="1" width="350" row="1">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{2C0927F3-8E2D-4BDD-AF3E-A85255F46BC0}">
+  <we:reference id="76ced0e3-ef80-4b7e-af22-0934be9fe3f1" version="1.0.0.0" store="\\THEA-PC\Users\Thea\Desktop\thing" storeType="Filesystem"/>
+  <we:alternateReferences/>
+  <we:properties>
+    <we:property name="testing" value="&quot;[[1,[\&quot;east\&quot;]]]&quot;"/>
+    <we:property name="search_names" value="&quot;[\&quot;testing\&quot;]&quot;"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F12" sqref="A1:G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -755,7 +624,7 @@
         <v>41645</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>7</v>
@@ -779,7 +648,7 @@
         <v>41662</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>8</v>
@@ -803,7 +672,7 @@
         <v>41679</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>6</v>
@@ -827,7 +696,7 @@
         <v>41696</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>5</v>
@@ -851,7 +720,7 @@
         <v>41713</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>13</v>
@@ -875,7 +744,7 @@
         <v>41730</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>7</v>
@@ -899,7 +768,7 @@
         <v>41747</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>18</v>
@@ -923,7 +792,7 @@
         <v>41764</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>6</v>
@@ -947,7 +816,7 @@
         <v>41781</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>9</v>
@@ -971,7 +840,7 @@
         <v>41798</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>7</v>
@@ -995,7 +864,7 @@
         <v>41815</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>12</v>
@@ -1019,7 +888,7 @@
         <v>41832</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>11</v>
@@ -1043,7 +912,7 @@
         <v>41849</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>19</v>
@@ -1067,7 +936,7 @@
         <v>41866</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>7</v>
@@ -1091,7 +960,7 @@
         <v>41883</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>10</v>
@@ -1115,7 +984,7 @@
         <v>41900</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>7</v>
@@ -1139,7 +1008,7 @@
         <v>41917</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>12</v>
@@ -1163,7 +1032,7 @@
         <v>41934</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>7</v>
@@ -1187,7 +1056,7 @@
         <v>41951</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>19</v>
@@ -1211,7 +1080,7 @@
         <v>41968</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>8</v>
@@ -1235,7 +1104,7 @@
         <v>41985</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>10</v>
@@ -1259,7 +1128,7 @@
         <v>42002</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>19</v>
@@ -1283,7 +1152,7 @@
         <v>42019</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>5</v>
@@ -1307,7 +1176,7 @@
         <v>42036</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>10</v>
@@ -1331,7 +1200,7 @@
         <v>42053</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>7</v>
@@ -1355,7 +1224,7 @@
         <v>42070</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>13</v>
@@ -1379,7 +1248,7 @@
         <v>42087</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>6</v>
@@ -1403,7 +1272,7 @@
         <v>42104</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>18</v>
@@ -1427,7 +1296,7 @@
         <v>42121</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>11</v>
@@ -1451,7 +1320,7 @@
         <v>42138</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>5</v>
@@ -1475,7 +1344,7 @@
         <v>42155</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>5</v>
@@ -1499,7 +1368,7 @@
         <v>42172</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>8</v>
@@ -1523,7 +1392,7 @@
         <v>42189</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>7</v>
@@ -1547,7 +1416,7 @@
         <v>42206</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>12</v>
@@ -1571,7 +1440,7 @@
         <v>42223</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>8</v>
@@ -1595,7 +1464,7 @@
         <v>42240</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>13</v>
@@ -1619,7 +1488,7 @@
         <v>42257</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>5</v>
@@ -1643,7 +1512,7 @@
         <v>42274</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>13</v>
@@ -1667,7 +1536,7 @@
         <v>42291</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>9</v>
@@ -1691,7 +1560,7 @@
         <v>42308</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>18</v>
@@ -1715,7 +1584,7 @@
         <v>42325</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>6</v>
@@ -1739,7 +1608,7 @@
         <v>42342</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>6</v>
@@ -1763,7 +1632,7 @@
         <v>42359</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>18</v>
@@ -1790,300 +1659,4 @@
     <oddFooter>&amp;LDeveloped by Contextures Inc.&amp;Cwww.contextures.com&amp;R&amp;D</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:D30"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="1.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="17"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="17"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="17"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="17"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="17"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="17"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="17"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="17"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="17"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" tooltip="Jon Peltier's Excel Chart Utilities"/>
-    <hyperlink ref="B13" r:id="rId2" tooltip="ExcelUser Dashboards"/>
-    <hyperlink ref="B18" r:id="rId3" tooltip="Chandoo's Project Management Templates"/>
-    <hyperlink ref="B17" r:id="rId4" tooltip="Chandoo's Excel VBA School"/>
-    <hyperlink ref="B8" r:id="rId5" tooltip="30 Excel Functions in 30 Days eBook kit"/>
-    <hyperlink ref="B4" r:id="rId6" tooltip="PivotPower Premium Add-in"/>
-    <hyperlink ref="B5" r:id="rId7" tooltip="UserForms for Data Entry ebook Kit"/>
-    <hyperlink ref="B16" r:id="rId8" tooltip="Excel Courses Online"/>
-    <hyperlink ref="B6" r:id="rId9"/>
-    <hyperlink ref="B23" r:id="rId10"/>
-    <hyperlink ref="B25" r:id="rId11"/>
-    <hyperlink ref="B24" r:id="rId12"/>
-    <hyperlink ref="B26" r:id="rId13" tooltip="Debra's Pivot Table Books on Amazon"/>
-    <hyperlink ref="B7" r:id="rId14"/>
-    <hyperlink ref="B15" r:id="rId15"/>
-    <hyperlink ref="B14" r:id="rId16" tooltip="Xtreme Pivot Table Course"/>
-    <hyperlink ref="B22" r:id="rId17"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>